--- a/produkty_pitania.xlsx
+++ b/produkty_pitania.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="-105" windowWidth="18225" windowHeight="7170" firstSheet="2"/>
+    <workbookView xWindow="360" yWindow="-105" windowWidth="18225" windowHeight="7170" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="мясные" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,15 @@
     <sheet name="бобовые, орехи" sheetId="4" r:id="rId4"/>
     <sheet name="углеводы сложные" sheetId="5" r:id="rId5"/>
     <sheet name="углеводы простые" sheetId="6" r:id="rId6"/>
-    <sheet name="жиры ненасыщенные" sheetId="8" r:id="rId7"/>
+    <sheet name="жиры" sheetId="8" r:id="rId7"/>
+    <sheet name="500+" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="123">
   <si>
     <t>Калории</t>
   </si>
@@ -365,16 +366,40 @@
   </si>
   <si>
     <t>Масло подсолнечное  нераф</t>
+  </si>
+  <si>
+    <t>Snikers большой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чипсы «Mega Chips» </t>
+  </si>
+  <si>
+    <t>цена 1000 калорий</t>
+  </si>
+  <si>
+    <t>Шоколад «Спартак» горький 56 %</t>
+  </si>
+  <si>
+    <t>Арахис в чипсовой оболочке</t>
+  </si>
+  <si>
+    <t>Халва «Мишкино счастье» с арахисом</t>
+  </si>
+  <si>
+    <t>Вафельный батончик «Смак»</t>
+  </si>
+  <si>
+    <t>Печенье "Алфавит" </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -434,6 +459,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -531,7 +564,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -657,9 +690,6 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -676,6 +706,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -774,7 +813,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -809,7 +847,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -985,14 +1022,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="48.28515625" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
@@ -1004,7 +1041,7 @@
     <col min="11" max="256" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="33" t="s">
         <v>63</v>
       </c>
@@ -1039,7 +1076,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,12 +1110,12 @@
       <c r="J2" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="48">
+      <c r="K2" s="47">
         <f>B2/(B2+C2)*100</f>
         <v>80.912863070539416</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="30" t="s">
         <v>85</v>
       </c>
@@ -1112,12 +1149,12 @@
       <c r="J3" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="K3" s="48">
+      <c r="K3" s="47">
         <f t="shared" ref="K3:K17" si="3">B3/(B3+C3)*100</f>
         <v>34.285714285714285</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>56</v>
       </c>
@@ -1149,12 +1186,12 @@
         <v>60</v>
       </c>
       <c r="J4" s="25"/>
-      <c r="K4" s="48">
+      <c r="K4" s="47">
         <f t="shared" si="3"/>
         <v>86.956521739130437</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>58</v>
       </c>
@@ -1188,12 +1225,12 @@
       <c r="J5" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="K5" s="48">
+      <c r="K5" s="47">
         <f t="shared" si="3"/>
         <v>56.521739130434788</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -1227,12 +1264,12 @@
       <c r="J6" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="K6" s="48">
+      <c r="K6" s="47">
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="9" t="s">
         <v>86</v>
       </c>
@@ -1266,12 +1303,12 @@
       <c r="J7" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="K7" s="48">
+      <c r="K7" s="47">
         <f t="shared" si="3"/>
         <v>42.857142857142854</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
         <v>87</v>
       </c>
@@ -1305,12 +1342,12 @@
       <c r="J8" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="K8" s="48">
+      <c r="K8" s="47">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="42" t="s">
         <v>93</v>
       </c>
@@ -1344,12 +1381,12 @@
       <c r="J9" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="K9" s="48">
+      <c r="K9" s="47">
         <f t="shared" si="3"/>
         <v>53.571428571428569</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
         <v>88</v>
       </c>
@@ -1383,12 +1420,12 @@
       <c r="J10" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="K10" s="48">
+      <c r="K10" s="47">
         <f t="shared" si="3"/>
         <v>43.478260869565219</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="13" t="s">
         <v>19</v>
       </c>
@@ -1422,12 +1459,12 @@
       <c r="J11" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="K11" s="48">
+      <c r="K11" s="47">
         <f t="shared" si="3"/>
         <v>35.714285714285715</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="13" t="s">
         <v>57</v>
       </c>
@@ -1459,12 +1496,12 @@
         <v>60</v>
       </c>
       <c r="J12" s="25"/>
-      <c r="K12" s="48">
+      <c r="K12" s="47">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="30" t="s">
         <v>81</v>
       </c>
@@ -1498,12 +1535,12 @@
       <c r="J13" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="K13" s="48">
+      <c r="K13" s="47">
         <f t="shared" si="3"/>
         <v>91.428571428571431</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="44" t="s">
         <v>95</v>
       </c>
@@ -1535,12 +1572,12 @@
         <v>60</v>
       </c>
       <c r="J14" s="25"/>
-      <c r="K14" s="48">
+      <c r="K14" s="47">
         <f t="shared" si="3"/>
         <v>83.333333333333343</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
         <v>59</v>
       </c>
@@ -1572,12 +1609,12 @@
         <v>60</v>
       </c>
       <c r="J15" s="25"/>
-      <c r="K15" s="48">
+      <c r="K15" s="47">
         <f t="shared" si="3"/>
         <v>68.421052631578945</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="9" t="s">
         <v>8</v>
       </c>
@@ -1611,12 +1648,12 @@
       <c r="J16" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="K16" s="48">
+      <c r="K16" s="47">
         <f t="shared" si="3"/>
         <v>66.666666666666657</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="13" t="s">
         <v>20</v>
       </c>
@@ -1650,12 +1687,12 @@
       <c r="J17" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="K17" s="48">
+      <c r="K17" s="47">
         <f t="shared" si="3"/>
         <v>41.77215189873418</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="B18" s="45"/>
       <c r="E18" s="45"/>
       <c r="F18" s="45"/>
@@ -1672,14 +1709,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="38.28515625" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
@@ -1689,7 +1726,7 @@
     <col min="9" max="256" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -1721,7 +1758,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -1755,12 +1792,12 @@
       <c r="J2" t="s">
         <v>79</v>
       </c>
-      <c r="K2" s="49">
+      <c r="K2" s="48">
         <f t="shared" ref="K2:K13" si="3">B2/(B2+C2)*100</f>
         <v>88.888888888888886</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -1794,12 +1831,12 @@
       <c r="J3" t="s">
         <v>79</v>
       </c>
-      <c r="K3" s="49">
+      <c r="K3" s="48">
         <f t="shared" si="3"/>
         <v>88.888888888888886</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -1833,12 +1870,12 @@
       <c r="J4" t="s">
         <v>79</v>
       </c>
-      <c r="K4" s="49">
+      <c r="K4" s="48">
         <f t="shared" si="3"/>
         <v>88.888888888888886</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1872,12 +1909,12 @@
       <c r="J5" t="s">
         <v>77</v>
       </c>
-      <c r="K5" s="49">
+      <c r="K5" s="48">
         <f t="shared" si="3"/>
         <v>77.477477477477478</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1911,12 +1948,12 @@
       <c r="J6" t="s">
         <v>77</v>
       </c>
-      <c r="K6" s="49">
+      <c r="K6" s="48">
         <f t="shared" si="3"/>
         <v>71.074380165289256</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1950,12 +1987,12 @@
       <c r="J7" t="s">
         <v>77</v>
       </c>
-      <c r="K7" s="49">
+      <c r="K7" s="48">
         <f t="shared" si="3"/>
         <v>79.695431472081211</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="27" t="s">
         <v>109</v>
       </c>
@@ -1989,12 +2026,12 @@
       <c r="J8" t="s">
         <v>77</v>
       </c>
-      <c r="K8" s="49">
+      <c r="K8" s="48">
         <f t="shared" si="3"/>
         <v>49.206349206349202</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -2028,12 +2065,12 @@
       <c r="J9" t="s">
         <v>77</v>
       </c>
-      <c r="K9" s="49">
+      <c r="K9" s="48">
         <f t="shared" si="3"/>
         <v>52.674897119341566</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="27" t="s">
         <v>110</v>
       </c>
@@ -2067,12 +2104,12 @@
       <c r="J10" t="s">
         <v>77</v>
       </c>
-      <c r="K10" s="49">
+      <c r="K10" s="48">
         <f t="shared" si="3"/>
         <v>49.206349206349202</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>107</v>
       </c>
@@ -2106,12 +2143,12 @@
       <c r="J11" t="s">
         <v>77</v>
       </c>
-      <c r="K11" s="49">
+      <c r="K11" s="48">
         <f t="shared" si="3"/>
         <v>49.056603773584904</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>96</v>
       </c>
@@ -2145,12 +2182,12 @@
       <c r="J12" t="s">
         <v>77</v>
       </c>
-      <c r="K12" s="49">
+      <c r="K12" s="48">
         <f t="shared" si="3"/>
         <v>63.265306122448983</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>108</v>
       </c>
@@ -2184,37 +2221,37 @@
       <c r="J13" t="s">
         <v>77</v>
       </c>
-      <c r="K13" s="49">
+      <c r="K13" s="48">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="D14" s="17"/>
       <c r="G14" s="18"/>
       <c r="H14" s="19"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="D15" s="17"/>
       <c r="G15" s="18"/>
       <c r="H15" s="19"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="D16" s="17"/>
       <c r="G16" s="18"/>
       <c r="H16" s="19"/>
     </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:8">
       <c r="D17" s="17"/>
       <c r="G17" s="18"/>
       <c r="H17" s="19"/>
     </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:8">
       <c r="D18" s="17"/>
       <c r="G18" s="18"/>
       <c r="H18" s="19"/>
     </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:8">
       <c r="D19" s="17"/>
       <c r="G19" s="18"/>
       <c r="H19" s="19"/>
@@ -2228,14 +2265,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="38.85546875" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
@@ -2247,7 +2284,7 @@
     <col min="11" max="256" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -2266,7 +2303,7 @@
       <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="H1" s="51" t="s">
         <v>4</v>
       </c>
       <c r="I1" t="s">
@@ -2279,7 +2316,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -2289,7 +2326,7 @@
       <c r="C2" s="28">
         <v>18</v>
       </c>
-      <c r="D2" s="50">
+      <c r="D2" s="49">
         <f>B2*4+C2*9</f>
         <v>238</v>
       </c>
@@ -2299,11 +2336,11 @@
       <c r="F2" s="28">
         <v>1.5</v>
       </c>
-      <c r="G2" s="51">
+      <c r="G2" s="50">
         <f>F2*1000/E2</f>
         <v>6</v>
       </c>
-      <c r="H2" s="53">
+      <c r="H2" s="52">
         <f>G2*10/B2</f>
         <v>3.1578947368421053</v>
       </c>
@@ -2311,12 +2348,12 @@
         <v>26</v>
       </c>
       <c r="J2" s="28"/>
-      <c r="K2" s="49">
+      <c r="K2" s="48">
         <f>B2/(B2+C2)*100</f>
         <v>51.351351351351347</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="27" t="s">
         <v>104</v>
       </c>
@@ -2326,7 +2363,7 @@
       <c r="C3" s="28">
         <v>15</v>
       </c>
-      <c r="D3" s="50">
+      <c r="D3" s="49">
         <f>B3*4+C3*9</f>
         <v>217.8</v>
       </c>
@@ -2336,11 +2373,11 @@
       <c r="F3" s="28">
         <v>5.5</v>
       </c>
-      <c r="G3" s="51">
+      <c r="G3" s="50">
         <f>F3*1000/E3</f>
         <v>11</v>
       </c>
-      <c r="H3" s="53">
+      <c r="H3" s="52">
         <f>G3*10/B3</f>
         <v>5.3140096618357493</v>
       </c>
@@ -2348,12 +2385,12 @@
       <c r="J3" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="K3" s="49">
+      <c r="K3" s="48">
         <f>B3/(B3+C3)*100</f>
         <v>57.983193277310917</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -2363,7 +2400,7 @@
       <c r="C4" s="28">
         <v>11.8</v>
       </c>
-      <c r="D4" s="50">
+      <c r="D4" s="49">
         <f>B4*4+C4*9</f>
         <v>173.4</v>
       </c>
@@ -2373,11 +2410,11 @@
       <c r="F4" s="28">
         <v>2.39</v>
       </c>
-      <c r="G4" s="51">
+      <c r="G4" s="50">
         <f>F4*1000/E4</f>
         <v>11.95</v>
       </c>
-      <c r="H4" s="53">
+      <c r="H4" s="52">
         <f>G4*10/B4</f>
         <v>7.1130952380952381</v>
       </c>
@@ -2385,12 +2422,12 @@
         <v>46</v>
       </c>
       <c r="J4" s="28"/>
-      <c r="K4" s="49">
+      <c r="K4" s="48">
         <f>B4/(B4+C4)*100</f>
         <v>58.74125874125874</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -2400,7 +2437,7 @@
       <c r="C5" s="28">
         <v>11.6</v>
       </c>
-      <c r="D5" s="50">
+      <c r="D5" s="49">
         <f>B5*4+C5*9</f>
         <v>158.39999999999998</v>
       </c>
@@ -2410,11 +2447,11 @@
       <c r="F5" s="28">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G5" s="51">
+      <c r="G5" s="50">
         <f>F5*1000/E5</f>
         <v>11</v>
       </c>
-      <c r="H5" s="53">
+      <c r="H5" s="52">
         <f>G5*10/B5</f>
         <v>8.1481481481481488</v>
       </c>
@@ -2424,12 +2461,12 @@
       <c r="J5" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="K5" s="49">
+      <c r="K5" s="48">
         <f>B5/(B5+C5)*100</f>
         <v>53.784860557768923</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -2439,7 +2476,7 @@
       <c r="C6" s="28">
         <v>11.8</v>
       </c>
-      <c r="D6" s="50">
+      <c r="D6" s="49">
         <f>B6*4+C6*9</f>
         <v>159.4</v>
       </c>
@@ -2449,11 +2486,11 @@
       <c r="F6" s="28">
         <v>2.35</v>
       </c>
-      <c r="G6" s="51">
+      <c r="G6" s="50">
         <f>F6*1000/E6</f>
         <v>13.823529411764707</v>
       </c>
-      <c r="H6" s="53">
+      <c r="H6" s="52">
         <f>G6*10/B6</f>
         <v>10.393631136665192</v>
       </c>
@@ -2461,102 +2498,102 @@
         <v>26</v>
       </c>
       <c r="J6" s="28"/>
-      <c r="K6" s="49">
+      <c r="K6" s="48">
         <f>B6/(B6+C6)*100</f>
         <v>52.988047808764939</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="D7" s="17"/>
       <c r="G7" s="18"/>
       <c r="H7" s="19"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="D8" s="17"/>
       <c r="G8" s="18"/>
       <c r="H8" s="19"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="D9" s="17"/>
       <c r="G9" s="18"/>
       <c r="H9" s="19"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="D10" s="17"/>
       <c r="G10" s="18"/>
       <c r="H10" s="19"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="D11" s="17"/>
       <c r="G11" s="18"/>
       <c r="H11" s="19"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="D12" s="17"/>
       <c r="G12" s="18"/>
       <c r="H12" s="19"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="D13" s="17"/>
       <c r="G13" s="18"/>
       <c r="H13" s="19"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="D14" s="17"/>
       <c r="G14" s="18"/>
       <c r="H14" s="19"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="D15" s="17"/>
       <c r="G15" s="18"/>
       <c r="H15" s="19"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="D16" s="17"/>
       <c r="G16" s="18"/>
       <c r="H16" s="19"/>
     </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:8">
       <c r="D17" s="17"/>
       <c r="G17" s="18"/>
       <c r="H17" s="19"/>
     </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:8">
       <c r="D18" s="17"/>
       <c r="G18" s="18"/>
       <c r="H18" s="19"/>
     </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:8">
       <c r="D19" s="17"/>
       <c r="G19" s="18"/>
       <c r="H19" s="19"/>
     </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:8">
       <c r="D20" s="17"/>
       <c r="G20" s="18"/>
       <c r="H20" s="19"/>
     </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:8">
       <c r="D21" s="17"/>
       <c r="G21" s="18"/>
       <c r="H21" s="19"/>
     </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:8">
       <c r="D22" s="17"/>
       <c r="G22" s="18"/>
       <c r="H22" s="19"/>
     </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:8">
       <c r="D23" s="17"/>
       <c r="G23" s="18"/>
       <c r="H23" s="19"/>
     </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:8">
       <c r="D24" s="17"/>
       <c r="G24" s="18"/>
       <c r="H24" s="19"/>
     </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:8">
       <c r="D25" s="17"/>
       <c r="G25" s="18"/>
       <c r="H25" s="19"/>
@@ -2571,14 +2608,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="34.85546875" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
@@ -2590,7 +2627,7 @@
     <col min="11" max="256" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -2619,7 +2656,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -2654,7 +2691,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -2689,7 +2726,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -2724,7 +2761,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -2759,92 +2796,92 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="D6" s="17"/>
       <c r="G6" s="18"/>
       <c r="H6" s="19"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="D7" s="17"/>
       <c r="G7" s="18"/>
       <c r="H7" s="19"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="D8" s="17"/>
       <c r="G8" s="18"/>
       <c r="H8" s="19"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="D9" s="17"/>
       <c r="G9" s="18"/>
       <c r="H9" s="19"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="D10" s="17"/>
       <c r="G10" s="18"/>
       <c r="H10" s="19"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="D11" s="17"/>
       <c r="G11" s="18"/>
       <c r="H11" s="19"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="D12" s="17"/>
       <c r="G12" s="18"/>
       <c r="H12" s="19"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="D13" s="17"/>
       <c r="G13" s="18"/>
       <c r="H13" s="19"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="D14" s="17"/>
       <c r="G14" s="18"/>
       <c r="H14" s="19"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="D15" s="17"/>
       <c r="G15" s="18"/>
       <c r="H15" s="19"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="D16" s="17"/>
       <c r="G16" s="18"/>
       <c r="H16" s="19"/>
     </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:8">
       <c r="D17" s="17"/>
       <c r="G17" s="18"/>
       <c r="H17" s="19"/>
     </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:8">
       <c r="D18" s="17"/>
       <c r="G18" s="18"/>
       <c r="H18" s="19"/>
     </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:8">
       <c r="D19" s="17"/>
       <c r="G19" s="18"/>
       <c r="H19" s="19"/>
     </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:8">
       <c r="D20" s="17"/>
       <c r="G20" s="18"/>
       <c r="H20" s="19"/>
     </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:8">
       <c r="D21" s="17"/>
       <c r="G21" s="18"/>
       <c r="H21" s="19"/>
     </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:8">
       <c r="D22" s="17"/>
       <c r="G22" s="18"/>
       <c r="H22" s="19"/>
     </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:8">
       <c r="D23" s="17"/>
       <c r="G23" s="18"/>
       <c r="H23" s="19"/>
@@ -2858,14 +2895,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="38.28515625" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
@@ -2877,7 +2914,7 @@
     <col min="11" max="256" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="B1" t="s">
         <v>30</v>
       </c>
@@ -2896,7 +2933,7 @@
       <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="H1" s="51" t="s">
         <v>31</v>
       </c>
       <c r="I1" t="s">
@@ -2912,7 +2949,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -2922,7 +2959,7 @@
       <c r="C2" s="5">
         <v>13</v>
       </c>
-      <c r="D2" s="50">
+      <c r="D2" s="49">
         <f t="shared" ref="D2:D8" si="0">B2*4+C2*4</f>
         <v>304</v>
       </c>
@@ -2932,11 +2969,11 @@
       <c r="F2" s="5">
         <v>0.6</v>
       </c>
-      <c r="G2" s="51">
+      <c r="G2" s="50">
         <f t="shared" ref="G2:G8" si="1">F2*1000/E2</f>
         <v>1.2</v>
       </c>
-      <c r="H2" s="53">
+      <c r="H2" s="52">
         <f t="shared" ref="H2:H8" si="2">G2*10/B2</f>
         <v>0.19047619047619047</v>
       </c>
@@ -2951,7 +2988,7 @@
       </c>
       <c r="L2" s="28"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -2961,7 +2998,7 @@
       <c r="C3" s="5">
         <v>12</v>
       </c>
-      <c r="D3" s="50">
+      <c r="D3" s="49">
         <f t="shared" si="0"/>
         <v>316</v>
       </c>
@@ -2971,11 +3008,11 @@
       <c r="F3" s="5">
         <v>1.4</v>
       </c>
-      <c r="G3" s="51">
+      <c r="G3" s="50">
         <f t="shared" si="1"/>
         <v>1.5555555555555556</v>
       </c>
-      <c r="H3" s="53">
+      <c r="H3" s="52">
         <f t="shared" si="2"/>
         <v>0.23217247097844113</v>
       </c>
@@ -2990,7 +3027,7 @@
       </c>
       <c r="L3" s="28"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -3000,7 +3037,7 @@
       <c r="C4" s="5">
         <v>7</v>
       </c>
-      <c r="D4" s="50">
+      <c r="D4" s="49">
         <f t="shared" si="0"/>
         <v>336</v>
       </c>
@@ -3010,11 +3047,11 @@
       <c r="F4" s="5">
         <v>2.19</v>
       </c>
-      <c r="G4" s="51">
+      <c r="G4" s="50">
         <f t="shared" si="1"/>
         <v>2.4333333333333331</v>
       </c>
-      <c r="H4" s="53">
+      <c r="H4" s="52">
         <f t="shared" si="2"/>
         <v>0.31601731601731597</v>
       </c>
@@ -3029,7 +3066,7 @@
       </c>
       <c r="L4" s="28"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>97</v>
       </c>
@@ -3039,7 +3076,7 @@
       <c r="C5" s="5">
         <v>12.5</v>
       </c>
-      <c r="D5" s="50">
+      <c r="D5" s="49">
         <f t="shared" si="0"/>
         <v>342</v>
       </c>
@@ -3049,11 +3086,11 @@
       <c r="F5" s="5">
         <v>1.69</v>
       </c>
-      <c r="G5" s="51">
+      <c r="G5" s="50">
         <f t="shared" si="1"/>
         <v>3.38</v>
       </c>
-      <c r="H5" s="53">
+      <c r="H5" s="52">
         <f t="shared" si="2"/>
         <v>0.46301369863013697</v>
       </c>
@@ -3068,7 +3105,7 @@
       </c>
       <c r="L5" s="28"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>98</v>
       </c>
@@ -3078,7 +3115,7 @@
       <c r="C6" s="5">
         <v>12.5</v>
       </c>
-      <c r="D6" s="50">
+      <c r="D6" s="49">
         <f t="shared" si="0"/>
         <v>336</v>
       </c>
@@ -3088,11 +3125,11 @@
       <c r="F6" s="5">
         <v>0.97</v>
       </c>
-      <c r="G6" s="51">
+      <c r="G6" s="50">
         <f t="shared" si="1"/>
         <v>2.1555555555555554</v>
       </c>
-      <c r="H6" s="53">
+      <c r="H6" s="52">
         <f t="shared" si="2"/>
         <v>0.30147630147630144</v>
       </c>
@@ -3109,7 +3146,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -3119,7 +3156,7 @@
       <c r="C7" s="5">
         <v>7</v>
       </c>
-      <c r="D7" s="50">
+      <c r="D7" s="49">
         <f t="shared" si="0"/>
         <v>268</v>
       </c>
@@ -3129,11 +3166,11 @@
       <c r="F7" s="5">
         <v>1</v>
       </c>
-      <c r="G7" s="51">
+      <c r="G7" s="50">
         <f t="shared" si="1"/>
         <v>2.8571428571428572</v>
       </c>
-      <c r="H7" s="53">
+      <c r="H7" s="52">
         <f t="shared" si="2"/>
         <v>0.47619047619047622</v>
       </c>
@@ -3148,7 +3185,7 @@
       </c>
       <c r="L7" s="28"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -3158,7 +3195,7 @@
       <c r="C8" s="5">
         <v>24</v>
       </c>
-      <c r="D8" s="50">
+      <c r="D8" s="49">
         <f t="shared" si="0"/>
         <v>304</v>
       </c>
@@ -3168,11 +3205,11 @@
       <c r="F8" s="5">
         <v>2.1800000000000002</v>
       </c>
-      <c r="G8" s="51">
+      <c r="G8" s="50">
         <f t="shared" si="1"/>
         <v>4.3600000000000003</v>
       </c>
-      <c r="H8" s="53">
+      <c r="H8" s="52">
         <f t="shared" si="2"/>
         <v>0.83846153846153848</v>
       </c>
@@ -3187,7 +3224,7 @@
       </c>
       <c r="L8" s="28"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="20"/>
@@ -3196,7 +3233,7 @@
       <c r="G9" s="21"/>
       <c r="H9" s="19"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="20"/>
@@ -3205,7 +3242,7 @@
       <c r="G10" s="21"/>
       <c r="H10" s="19"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="20"/>
@@ -3214,7 +3251,7 @@
       <c r="G11" s="21"/>
       <c r="H11" s="19"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="20"/>
@@ -3223,7 +3260,7 @@
       <c r="G12" s="21"/>
       <c r="H12" s="19"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="20"/>
@@ -3232,7 +3269,7 @@
       <c r="G13" s="21"/>
       <c r="H13" s="19"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="20"/>
@@ -3241,7 +3278,7 @@
       <c r="G14" s="21"/>
       <c r="H14" s="19"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="20"/>
@@ -3250,7 +3287,7 @@
       <c r="G15" s="21"/>
       <c r="H15" s="19"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="20"/>
@@ -3259,7 +3296,7 @@
       <c r="G16" s="21"/>
       <c r="H16" s="19"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="20"/>
@@ -3268,7 +3305,7 @@
       <c r="G17" s="21"/>
       <c r="H17" s="19"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="20"/>
@@ -3277,7 +3314,7 @@
       <c r="G18" s="21"/>
       <c r="H18" s="19"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="20"/>
@@ -3286,7 +3323,7 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="20"/>
@@ -3295,7 +3332,7 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="20"/>
@@ -3304,7 +3341,7 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="20"/>
@@ -3313,7 +3350,7 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -3322,7 +3359,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -3331,7 +3368,7 @@
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -3340,7 +3377,7 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -3349,7 +3386,7 @@
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -3358,7 +3395,7 @@
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -3376,14 +3413,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="40.42578125" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
@@ -3395,7 +3432,7 @@
     <col min="11" max="256" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="B1" t="s">
         <v>30</v>
       </c>
@@ -3423,11 +3460,11 @@
       <c r="J1" t="s">
         <v>73</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="28" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>90</v>
       </c>
@@ -3437,8 +3474,8 @@
       <c r="C2" s="5">
         <v>7</v>
       </c>
-      <c r="D2" s="5">
-        <f t="shared" ref="D2:D15" si="0">B2*4+C2*4</f>
+      <c r="D2" s="54">
+        <f>B2*4+C2*4</f>
         <v>312</v>
       </c>
       <c r="E2" s="5">
@@ -3447,25 +3484,25 @@
       <c r="F2" s="5">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G2" s="19">
-        <f t="shared" ref="G2:G16" si="1">F2*1000/E2</f>
+      <c r="G2" s="52">
+        <f>F2*1000/E2</f>
         <v>1.5571428571428572</v>
       </c>
       <c r="H2" s="19">
-        <f t="shared" ref="H2:H16" si="2">G2*10/B2</f>
+        <f>G2*10/B2</f>
         <v>0.21931589537223339</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="28" t="s">
         <v>26</v>
       </c>
       <c r="J2" t="s">
         <v>76</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="28">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -3475,8 +3512,8 @@
       <c r="C3" s="5">
         <v>0</v>
       </c>
-      <c r="D3" s="20">
-        <f t="shared" si="0"/>
+      <c r="D3" s="54">
+        <f>B3*4+C3*4</f>
         <v>328</v>
       </c>
       <c r="E3" s="5">
@@ -3485,25 +3522,25 @@
       <c r="F3" s="5">
         <v>4.47</v>
       </c>
-      <c r="G3" s="21">
-        <f t="shared" si="1"/>
+      <c r="G3" s="52">
+        <f>F3*1000/E3</f>
         <v>4.47</v>
       </c>
       <c r="H3" s="19">
-        <f t="shared" si="2"/>
+        <f>G3*10/B3</f>
         <v>0.54512195121951212</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="28" t="s">
         <v>49</v>
       </c>
       <c r="J3" t="s">
         <v>74</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="28">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>62</v>
       </c>
@@ -3513,8 +3550,8 @@
       <c r="C4" s="5">
         <v>0</v>
       </c>
-      <c r="D4" s="20">
-        <f t="shared" si="0"/>
+      <c r="D4" s="54">
+        <f>B4*4+C4*4</f>
         <v>328</v>
       </c>
       <c r="E4" s="5">
@@ -3523,25 +3560,25 @@
       <c r="F4" s="5">
         <v>1.19</v>
       </c>
-      <c r="G4" s="21">
-        <f t="shared" si="1"/>
+      <c r="G4" s="52">
+        <f>F4*1000/E4</f>
         <v>4.76</v>
       </c>
       <c r="H4" s="19">
-        <f t="shared" si="2"/>
+        <f>G4*10/B4</f>
         <v>0.58048780487804874</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="28" t="s">
         <v>26</v>
       </c>
       <c r="J4" t="s">
         <v>76</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="28">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -3551,8 +3588,8 @@
       <c r="C5" s="5">
         <v>7.5</v>
       </c>
-      <c r="D5" s="20">
-        <f t="shared" si="0"/>
+      <c r="D5" s="54">
+        <f>B5*4+C5*4</f>
         <v>342</v>
       </c>
       <c r="E5" s="5">
@@ -3561,25 +3598,25 @@
       <c r="F5" s="5">
         <v>1.52</v>
       </c>
-      <c r="G5" s="21">
-        <f t="shared" si="1"/>
+      <c r="G5" s="52">
+        <f>F5*1000/E5</f>
         <v>4.6060606060606064</v>
       </c>
       <c r="H5" s="19">
-        <f t="shared" si="2"/>
+        <f>G5*10/B5</f>
         <v>0.59052059052059058</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="28" t="s">
         <v>47</v>
       </c>
       <c r="J5" t="s">
         <v>76</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="28">
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -3589,8 +3626,8 @@
       <c r="C6" s="5">
         <v>8.5</v>
       </c>
-      <c r="D6" s="20">
-        <f t="shared" si="0"/>
+      <c r="D6" s="54">
+        <f>B6*4+C6*4</f>
         <v>338</v>
       </c>
       <c r="E6" s="5">
@@ -3599,25 +3636,25 @@
       <c r="F6" s="5">
         <v>1.53</v>
       </c>
-      <c r="G6" s="21">
-        <f t="shared" si="1"/>
+      <c r="G6" s="52">
+        <f>F6*1000/E6</f>
         <v>4.6363636363636367</v>
       </c>
       <c r="H6" s="19">
-        <f t="shared" si="2"/>
+        <f>G6*10/B6</f>
         <v>0.61004784688995217</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="28" t="s">
         <v>26</v>
       </c>
       <c r="J6" t="s">
         <v>76</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="28">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="23" t="s">
         <v>72</v>
       </c>
@@ -3627,8 +3664,8 @@
       <c r="C7" s="5">
         <v>1</v>
       </c>
-      <c r="D7" s="20">
-        <f t="shared" si="0"/>
+      <c r="D7" s="54">
+        <f>B7*4+C7*4</f>
         <v>316</v>
       </c>
       <c r="E7" s="5">
@@ -3637,25 +3674,25 @@
       <c r="F7" s="5">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G7" s="21">
-        <f t="shared" si="1"/>
+      <c r="G7" s="52">
+        <f>F7*1000/E7</f>
         <v>4.9000000000000004</v>
       </c>
       <c r="H7" s="19">
-        <f t="shared" si="2"/>
+        <f>G7*10/B7</f>
         <v>0.62820512820512819</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="28" t="s">
         <v>26</v>
       </c>
       <c r="J7" t="s">
         <v>75</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="28">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>103</v>
       </c>
@@ -3665,8 +3702,8 @@
       <c r="C8" s="5">
         <v>9</v>
       </c>
-      <c r="D8" s="5">
-        <f t="shared" si="0"/>
+      <c r="D8" s="54">
+        <f>B8*4+C8*4</f>
         <v>328</v>
       </c>
       <c r="E8" s="5">
@@ -3675,22 +3712,23 @@
       <c r="F8" s="5">
         <v>1.4</v>
       </c>
-      <c r="G8" s="19">
-        <f t="shared" si="1"/>
+      <c r="G8" s="52">
+        <f>F8*1000/E8</f>
         <v>4.666666666666667</v>
       </c>
       <c r="H8" s="19">
-        <f t="shared" si="2"/>
+        <f>G8*10/B8</f>
         <v>0.63926940639269414</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="I8" s="29" t="s">
         <v>26</v>
       </c>
       <c r="J8" s="27" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K8" s="28"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>64</v>
       </c>
@@ -3700,8 +3738,8 @@
       <c r="C9" s="5">
         <v>1</v>
       </c>
-      <c r="D9" s="20">
-        <f t="shared" si="0"/>
+      <c r="D9" s="54">
+        <f>B9*4+C9*4</f>
         <v>328</v>
       </c>
       <c r="E9" s="5">
@@ -3710,25 +3748,25 @@
       <c r="F9" s="5">
         <v>1.29</v>
       </c>
-      <c r="G9" s="21">
-        <f t="shared" si="1"/>
+      <c r="G9" s="52">
+        <f>F9*1000/E9</f>
         <v>5.6086956521739131</v>
       </c>
       <c r="H9" s="19">
-        <f t="shared" si="2"/>
+        <f>G9*10/B9</f>
         <v>0.69243156199677947</v>
       </c>
-      <c r="I9" s="27" t="s">
+      <c r="I9" s="29" t="s">
         <v>26</v>
       </c>
       <c r="J9" t="s">
         <v>76</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="28">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="23" t="s">
         <v>102</v>
       </c>
@@ -3738,8 +3776,8 @@
       <c r="C10" s="5">
         <v>1</v>
       </c>
-      <c r="D10" s="5">
-        <f t="shared" si="0"/>
+      <c r="D10" s="54">
+        <f>B10*4+C10*4</f>
         <v>288</v>
       </c>
       <c r="E10" s="5">
@@ -3748,22 +3786,23 @@
       <c r="F10" s="5">
         <v>1.52</v>
       </c>
-      <c r="G10" s="47">
-        <f t="shared" si="1"/>
+      <c r="G10" s="55">
+        <f>F10*1000/E10</f>
         <v>5.0666666666666664</v>
       </c>
       <c r="H10" s="19">
-        <f t="shared" si="2"/>
+        <f>G10*10/B10</f>
         <v>0.71361502347417838</v>
       </c>
-      <c r="I10" s="27" t="s">
+      <c r="I10" s="29" t="s">
         <v>26</v>
       </c>
       <c r="J10" s="27" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K10" s="28"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="23" t="s">
         <v>38</v>
       </c>
@@ -3773,8 +3812,8 @@
       <c r="C11" s="5">
         <v>3</v>
       </c>
-      <c r="D11" s="20">
-        <f t="shared" si="0"/>
+      <c r="D11" s="54">
+        <f>B11*4+C11*4</f>
         <v>320</v>
       </c>
       <c r="E11" s="5">
@@ -3783,25 +3822,25 @@
       <c r="F11" s="5">
         <v>6.4</v>
       </c>
-      <c r="G11" s="21">
-        <f t="shared" si="1"/>
+      <c r="G11" s="52">
+        <f>F11*1000/E11</f>
         <v>6.4</v>
       </c>
       <c r="H11" s="19">
-        <f t="shared" si="2"/>
+        <f>G11*10/B11</f>
         <v>0.83116883116883122</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="28" t="s">
         <v>43</v>
       </c>
       <c r="J11" t="s">
         <v>77</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="28">
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="22" t="s">
         <v>37</v>
       </c>
@@ -3811,8 +3850,8 @@
       <c r="C12" s="5">
         <v>1</v>
       </c>
-      <c r="D12" s="20">
-        <f t="shared" si="0"/>
+      <c r="D12" s="54">
+        <f>B12*4+C12*4</f>
         <v>296</v>
       </c>
       <c r="E12" s="5">
@@ -3821,25 +3860,25 @@
       <c r="F12" s="5">
         <v>1.57</v>
       </c>
-      <c r="G12" s="21">
-        <f t="shared" si="1"/>
+      <c r="G12" s="52">
+        <f>F12*1000/E12</f>
         <v>6.28</v>
       </c>
       <c r="H12" s="19">
-        <f t="shared" si="2"/>
+        <f>G12*10/B12</f>
         <v>0.86027397260273974</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="28" t="s">
         <v>48</v>
       </c>
       <c r="J12" t="s">
         <v>76</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="28">
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="23" t="s">
         <v>36</v>
       </c>
@@ -3849,8 +3888,8 @@
       <c r="C13" s="5">
         <v>3</v>
       </c>
-      <c r="D13" s="20">
-        <f t="shared" si="0"/>
+      <c r="D13" s="54">
+        <f>B13*4+C13*4</f>
         <v>240</v>
       </c>
       <c r="E13" s="5">
@@ -3859,118 +3898,173 @@
       <c r="F13" s="5">
         <v>5</v>
       </c>
-      <c r="G13" s="21">
-        <f t="shared" si="1"/>
+      <c r="G13" s="52">
+        <f>F13*1000/E13</f>
         <v>5</v>
       </c>
       <c r="H13" s="19">
-        <f t="shared" si="2"/>
+        <f>G13*10/B13</f>
         <v>0.8771929824561403</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="28" t="s">
         <v>44</v>
       </c>
       <c r="J13" t="s">
         <v>77</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="28">
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="49">
+        <v>75</v>
+      </c>
+      <c r="C14" s="49">
+        <v>8</v>
+      </c>
+      <c r="D14" s="54">
+        <f>B14*4+C14*4</f>
+        <v>332</v>
+      </c>
+      <c r="E14" s="49">
+        <v>125</v>
+      </c>
+      <c r="F14" s="49">
+        <v>0.99</v>
+      </c>
+      <c r="G14" s="52">
+        <f>F14*1000/E14</f>
+        <v>7.92</v>
+      </c>
+      <c r="H14" s="50">
+        <f>G14*10/B14</f>
+        <v>1.056</v>
+      </c>
+      <c r="I14" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="28"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" s="5">
+        <v>81</v>
+      </c>
+      <c r="C15" s="5">
+        <v>3</v>
+      </c>
+      <c r="D15" s="54">
+        <f>B15*4+C15*4</f>
+        <v>336</v>
+      </c>
+      <c r="E15" s="5">
+        <v>35</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.31</v>
+      </c>
+      <c r="G15" s="52">
+        <f>F15*1000/E15</f>
+        <v>8.8571428571428577</v>
+      </c>
+      <c r="H15" s="19">
+        <f>G15*10/B15</f>
+        <v>1.0934744268077603</v>
+      </c>
+      <c r="I15" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="K15" s="28"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B16" s="5">
         <v>77</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C16" s="5">
         <v>0.5</v>
       </c>
-      <c r="D14" s="5">
-        <f t="shared" si="0"/>
+      <c r="D16" s="54">
+        <f>B16*4+C16*4</f>
         <v>310</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E16" s="5">
         <v>250</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F16" s="5">
         <v>2.25</v>
       </c>
-      <c r="G14" s="5">
-        <f t="shared" si="1"/>
+      <c r="G16" s="54">
+        <f>F16*1000/E16</f>
         <v>9</v>
       </c>
-      <c r="H14" s="19">
-        <f t="shared" si="2"/>
+      <c r="H16" s="19">
+        <f>G16*10/B16</f>
         <v>1.1688311688311688</v>
       </c>
-      <c r="I14" t="s">
-        <v>26</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="I16" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="K16" s="28"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B17" s="5">
         <v>10.6</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C17" s="5">
         <v>0</v>
       </c>
-      <c r="D15" s="20">
-        <f t="shared" si="0"/>
+      <c r="D17" s="54">
+        <f>B17*4+C17*4</f>
         <v>42.4</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E17" s="5">
         <v>1000</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F17" s="5">
         <v>1.51</v>
       </c>
-      <c r="G15" s="21">
-        <f t="shared" si="1"/>
+      <c r="G17" s="52">
+        <f>F17*1000/E17</f>
         <v>1.51</v>
       </c>
-      <c r="H15" s="19">
-        <f t="shared" si="2"/>
+      <c r="H17" s="19">
+        <f>G17*10/B17</f>
         <v>1.4245283018867925</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I17" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J17" t="s">
         <v>76</v>
       </c>
-      <c r="K15">
+      <c r="K17" s="28">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-    </row>
   </sheetData>
-  <sortState ref="A2:K15">
-    <sortCondition ref="H2:H15"/>
+  <sortState ref="A2:K17">
+    <sortCondition ref="H2:H17"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0"/>
@@ -3978,14 +4072,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36.85546875" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
@@ -3997,7 +4091,7 @@
     <col min="11" max="256" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="B1" s="28" t="s">
         <v>6</v>
       </c>
@@ -4023,7 +4117,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="27" t="s">
         <v>114</v>
       </c>
@@ -4058,7 +4152,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="27" t="s">
         <v>113</v>
       </c>
@@ -4093,7 +4187,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="23" t="s">
         <v>70</v>
       </c>
@@ -4128,7 +4222,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -4163,7 +4257,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="27" t="s">
         <v>111</v>
       </c>
@@ -4198,7 +4292,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="23" t="s">
         <v>84</v>
       </c>
@@ -4233,7 +4327,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="23" t="s">
         <v>78</v>
       </c>
@@ -4268,7 +4362,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="23" t="s">
         <v>69</v>
       </c>
@@ -4303,7 +4397,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -4338,7 +4432,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>67</v>
       </c>
@@ -4373,7 +4467,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="20"/>
@@ -4382,7 +4476,7 @@
       <c r="G12" s="21"/>
       <c r="H12" s="19"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -4391,7 +4485,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="19"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -4400,7 +4494,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -4409,7 +4503,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -4418,7 +4512,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -4427,7 +4521,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -4442,4 +4536,315 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="36.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" customWidth="1"/>
+    <col min="12" max="257" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="5">
+        <v>14</v>
+      </c>
+      <c r="C2" s="5">
+        <v>38</v>
+      </c>
+      <c r="D2" s="5">
+        <v>44</v>
+      </c>
+      <c r="E2" s="20">
+        <f>(B2+D2)*4+C2*9</f>
+        <v>574</v>
+      </c>
+      <c r="F2" s="5">
+        <v>350</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1.99</v>
+      </c>
+      <c r="H2" s="21">
+        <f>G2*1000/F2</f>
+        <v>5.6857142857142859</v>
+      </c>
+      <c r="I2" s="19">
+        <f>H2*100/E2</f>
+        <v>0.99054255848680928</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="5">
+        <v>15.7</v>
+      </c>
+      <c r="C3" s="5">
+        <v>30.1</v>
+      </c>
+      <c r="D3" s="5">
+        <v>47.1</v>
+      </c>
+      <c r="E3" s="20">
+        <f>(B3+D3)*4+C3*9</f>
+        <v>522.1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G3" s="5">
+        <v>10</v>
+      </c>
+      <c r="H3" s="21">
+        <f>G3*1000/F3</f>
+        <v>10</v>
+      </c>
+      <c r="I3" s="19">
+        <f>H3*100/E3</f>
+        <v>1.9153418885271021</v>
+      </c>
+      <c r="J3" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="5">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5">
+        <v>30</v>
+      </c>
+      <c r="D4" s="5">
+        <v>53</v>
+      </c>
+      <c r="E4" s="20">
+        <f>(B4+D4)*4+C4*9</f>
+        <v>510</v>
+      </c>
+      <c r="F4" s="5">
+        <v>200</v>
+      </c>
+      <c r="G4" s="5">
+        <v>2.09</v>
+      </c>
+      <c r="H4" s="21">
+        <f>G4*1000/F4</f>
+        <v>10.45</v>
+      </c>
+      <c r="I4" s="19">
+        <f>H4*100/E4</f>
+        <v>2.0490196078431371</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="5">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C5" s="5">
+        <v>27.4</v>
+      </c>
+      <c r="D5" s="5">
+        <v>56</v>
+      </c>
+      <c r="E5" s="20">
+        <f>(B5+D5)*4+C5*9</f>
+        <v>503.79999999999995</v>
+      </c>
+      <c r="F5" s="5">
+        <v>95</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1.69</v>
+      </c>
+      <c r="H5" s="21">
+        <f>G5*1000/F5</f>
+        <v>17.789473684210527</v>
+      </c>
+      <c r="I5" s="19">
+        <f>H5*100/E5</f>
+        <v>3.531058690792086</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="C6" s="5">
+        <v>34</v>
+      </c>
+      <c r="D6" s="5">
+        <v>51</v>
+      </c>
+      <c r="E6" s="20">
+        <f>(B6+D6)*4+C6*9</f>
+        <v>536</v>
+      </c>
+      <c r="F6" s="5">
+        <v>90</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1.79</v>
+      </c>
+      <c r="H6" s="21">
+        <f>G6*1000/F6</f>
+        <v>19.888888888888889</v>
+      </c>
+      <c r="I6" s="19">
+        <f>H6*100/E6</f>
+        <v>3.7106135986733002</v>
+      </c>
+      <c r="J6" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="23"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="28"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:K6">
+    <sortCondition ref="I2:I6"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
 </file>